--- a/Code/Results/Cases/Case_1_171/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_171/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.32591778994042</v>
+        <v>14.69890608103378</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.300515006286367</v>
+        <v>7.572163081662111</v>
       </c>
       <c r="E2">
-        <v>7.513363231922646</v>
+        <v>12.64670359564358</v>
       </c>
       <c r="F2">
-        <v>27.01189462534278</v>
+        <v>38.65643293357294</v>
       </c>
       <c r="G2">
-        <v>34.64750336388067</v>
+        <v>44.83942540982797</v>
       </c>
       <c r="H2">
-        <v>11.63835667751712</v>
+        <v>18.28927540083934</v>
       </c>
       <c r="I2">
-        <v>18.24560001591877</v>
+        <v>28.87748646452587</v>
       </c>
       <c r="J2">
-        <v>6.162544732743161</v>
+        <v>10.14041089272122</v>
       </c>
       <c r="K2">
-        <v>14.07440360044597</v>
+        <v>12.69257957617437</v>
       </c>
       <c r="L2">
-        <v>8.006949632855322</v>
+        <v>11.26114052038591</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.74831026076698</v>
+        <v>21.19674134173647</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.69539079741634</v>
+        <v>14.59064597173884</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>4.254407482477256</v>
+        <v>7.574029567663559</v>
       </c>
       <c r="E3">
-        <v>7.533239249552393</v>
+        <v>12.66228181817337</v>
       </c>
       <c r="F3">
-        <v>26.62489776231748</v>
+        <v>38.70234376265739</v>
       </c>
       <c r="G3">
-        <v>33.86553579750286</v>
+        <v>44.83744534736566</v>
       </c>
       <c r="H3">
-        <v>11.60993829718541</v>
+        <v>18.33097746650159</v>
       </c>
       <c r="I3">
-        <v>18.4046737491728</v>
+        <v>28.97095124947406</v>
       </c>
       <c r="J3">
-        <v>6.187339783650009</v>
+        <v>10.1507600937019</v>
       </c>
       <c r="K3">
-        <v>13.14193753005072</v>
+        <v>12.4847955616569</v>
       </c>
       <c r="L3">
-        <v>7.718470246006262</v>
+        <v>11.23446620043975</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.96613402098431</v>
+        <v>21.26055695412704</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.29517021308604</v>
+        <v>14.52645458149947</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>4.22681418029639</v>
+        <v>7.575680571815174</v>
       </c>
       <c r="E4">
-        <v>7.546847636443286</v>
+        <v>12.67252805241723</v>
       </c>
       <c r="F4">
-        <v>26.40587677144091</v>
+        <v>38.73876635179204</v>
       </c>
       <c r="G4">
-        <v>33.40968408384038</v>
+        <v>44.84819120245588</v>
       </c>
       <c r="H4">
-        <v>11.60014853042755</v>
+        <v>18.35960780550905</v>
       </c>
       <c r="I4">
-        <v>18.51277883495498</v>
+        <v>29.03264832855853</v>
       </c>
       <c r="J4">
-        <v>6.203278468754849</v>
+        <v>10.15748384155383</v>
       </c>
       <c r="K4">
-        <v>12.53698116772121</v>
+        <v>12.35816043131097</v>
       </c>
       <c r="L4">
-        <v>7.539719656206041</v>
+        <v>11.21993807970401</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>14.10275759868043</v>
+        <v>21.30155498930459</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.12898649183673</v>
+        <v>14.50089345629246</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>4.215753022036876</v>
+        <v>7.576480812249745</v>
       </c>
       <c r="E5">
-        <v>7.552740232729213</v>
+        <v>12.67687514958782</v>
       </c>
       <c r="F5">
-        <v>26.32125895242807</v>
+        <v>38.75567677409581</v>
       </c>
       <c r="G5">
-        <v>33.23009708870575</v>
+        <v>44.85557615107563</v>
       </c>
       <c r="H5">
-        <v>11.59802379691298</v>
+        <v>18.37203495458797</v>
       </c>
       <c r="I5">
-        <v>18.55936771470418</v>
+        <v>29.05887404913103</v>
       </c>
       <c r="J5">
-        <v>6.209952953127538</v>
+        <v>10.16031692367345</v>
       </c>
       <c r="K5">
-        <v>12.28226214523708</v>
+        <v>12.30686123486642</v>
       </c>
       <c r="L5">
-        <v>7.466572519859409</v>
+        <v>11.21448717109725</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.15918237255087</v>
+        <v>21.31871977396381</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.10121159903536</v>
+        <v>14.49668580996793</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>4.213927488678318</v>
+        <v>7.576621402159354</v>
       </c>
       <c r="E6">
-        <v>7.553739486654496</v>
+        <v>12.67760736206126</v>
       </c>
       <c r="F6">
-        <v>26.30748671203687</v>
+        <v>38.7586095516034</v>
       </c>
       <c r="G6">
-        <v>33.20065151910881</v>
+        <v>44.85698387117777</v>
       </c>
       <c r="H6">
-        <v>11.59778180486306</v>
+        <v>18.37414435889886</v>
       </c>
       <c r="I6">
-        <v>18.56725439845603</v>
+        <v>29.06329426212328</v>
       </c>
       <c r="J6">
-        <v>6.211072070815526</v>
+        <v>10.1607929848339</v>
       </c>
       <c r="K6">
-        <v>12.23947018453792</v>
+        <v>12.29836349182864</v>
       </c>
       <c r="L6">
-        <v>7.454411283545922</v>
+        <v>11.21361051931387</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.16859766219677</v>
+        <v>21.32159766044909</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.29294122876953</v>
+        <v>14.52610740562174</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4.226664259233735</v>
+        <v>7.575690847507819</v>
       </c>
       <c r="E7">
-        <v>7.546925708492193</v>
+        <v>12.67258598325073</v>
       </c>
       <c r="F7">
-        <v>26.40471688287278</v>
+        <v>38.7389860424016</v>
       </c>
       <c r="G7">
-        <v>33.40723702390984</v>
+        <v>44.84827863166728</v>
       </c>
       <c r="H7">
-        <v>11.60011240692396</v>
+        <v>18.35977232586252</v>
       </c>
       <c r="I7">
-        <v>18.51339699689294</v>
+        <v>29.03299763004532</v>
       </c>
       <c r="J7">
-        <v>6.203367757368054</v>
+        <v>10.15752167220975</v>
       </c>
       <c r="K7">
-        <v>12.53357916933846</v>
+        <v>12.35746726494149</v>
       </c>
       <c r="L7">
-        <v>7.538734259179941</v>
+        <v>11.2198626609053</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>14.10351549490758</v>
+        <v>21.30178462438078</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.1113333502685</v>
+        <v>14.66111923705138</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>4.284470138001032</v>
+        <v>7.572702118167387</v>
       </c>
       <c r="E8">
-        <v>7.519921182667655</v>
+        <v>12.65193383255105</v>
       </c>
       <c r="F8">
-        <v>26.87457731464021</v>
+        <v>38.67055296301885</v>
       </c>
       <c r="G8">
-        <v>34.37288976019079</v>
+        <v>44.83625948317012</v>
       </c>
       <c r="H8">
-        <v>11.62693165011061</v>
+        <v>18.30302604951833</v>
       </c>
       <c r="I8">
-        <v>18.29822845906009</v>
+        <v>28.90881874987712</v>
       </c>
       <c r="J8">
-        <v>6.170945574383401</v>
+        <v>10.14390279284826</v>
       </c>
       <c r="K8">
-        <v>13.75959049654483</v>
+        <v>12.62078021055829</v>
       </c>
       <c r="L8">
-        <v>7.907877828861842</v>
+        <v>11.25156188343869</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.82283420365383</v>
+        <v>21.21836908510122</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.60548007317182</v>
+        <v>14.94288199565255</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.403394547228028</v>
+        <v>7.570827814412924</v>
       </c>
       <c r="E9">
-        <v>7.478408947841291</v>
+        <v>12.61682201713771</v>
       </c>
       <c r="F9">
-        <v>27.94482189589182</v>
+        <v>38.6017633963126</v>
       </c>
       <c r="G9">
-        <v>36.4553643196363</v>
+        <v>44.90760140315315</v>
       </c>
       <c r="H9">
-        <v>11.74300972102476</v>
+        <v>18.21577646473907</v>
       </c>
       <c r="I9">
-        <v>17.96330720055044</v>
+        <v>28.69949479323208</v>
       </c>
       <c r="J9">
-        <v>6.113052928353507</v>
+        <v>10.1201156168994</v>
       </c>
       <c r="K9">
-        <v>15.9087549548348</v>
+        <v>13.14167016186625</v>
       </c>
       <c r="L9">
-        <v>8.61486111546221</v>
+        <v>11.32820228472012</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.29403259477733</v>
+        <v>21.06912947142988</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.62845980531671</v>
+        <v>15.15874476450094</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.494031868624583</v>
+        <v>7.571854270380575</v>
       </c>
       <c r="E10">
-        <v>7.455345831175049</v>
+        <v>12.59428544982521</v>
       </c>
       <c r="F10">
-        <v>28.82305523624359</v>
+        <v>38.59117156354175</v>
       </c>
       <c r="G10">
-        <v>38.09495965534665</v>
+        <v>45.01775520206738</v>
       </c>
       <c r="H10">
-        <v>11.87066835792358</v>
+        <v>18.16635784018441</v>
       </c>
       <c r="I10">
-        <v>17.77657321101348</v>
+        <v>28.56654492897672</v>
       </c>
       <c r="J10">
-        <v>6.074020676791964</v>
+        <v>10.10440387935867</v>
       </c>
       <c r="K10">
-        <v>17.33563279869613</v>
+        <v>13.52323290688246</v>
       </c>
       <c r="L10">
-        <v>9.119342305067017</v>
+        <v>11.39304525918605</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.91687672017204</v>
+        <v>20.96813393469831</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.07657480200585</v>
+        <v>15.2585338055182</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.535956643326497</v>
+        <v>7.572837245370111</v>
       </c>
       <c r="E11">
-        <v>7.446583682134452</v>
+        <v>12.58473583760695</v>
       </c>
       <c r="F11">
-        <v>29.24267012234098</v>
+        <v>38.59502795105966</v>
       </c>
       <c r="G11">
-        <v>38.86349629866615</v>
+        <v>45.08033418377342</v>
       </c>
       <c r="H11">
-        <v>11.93872008235521</v>
+        <v>18.14707053885883</v>
       </c>
       <c r="I11">
-        <v>17.70600600354118</v>
+        <v>28.51058769950385</v>
       </c>
       <c r="J11">
-        <v>6.057035318055525</v>
+        <v>10.09763620632826</v>
       </c>
       <c r="K11">
-        <v>17.95254051746419</v>
+        <v>13.69577544235407</v>
       </c>
       <c r="L11">
-        <v>9.34483801396617</v>
+        <v>11.42432793955922</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.74733402807431</v>
+        <v>20.92404765668586</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.24372603452146</v>
+        <v>15.29652155568308</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.551931475206183</v>
+        <v>7.573283149491148</v>
       </c>
       <c r="E12">
-        <v>7.443525200366376</v>
+        <v>12.5812202605205</v>
       </c>
       <c r="F12">
-        <v>29.40446195847139</v>
+        <v>38.59773425198453</v>
       </c>
       <c r="G12">
-        <v>39.15769515768976</v>
+        <v>45.10581464712761</v>
       </c>
       <c r="H12">
-        <v>11.96598717067636</v>
+        <v>18.14022652720936</v>
       </c>
       <c r="I12">
-        <v>17.68148650566575</v>
+        <v>28.49004857545084</v>
       </c>
       <c r="J12">
-        <v>6.050715506397983</v>
+        <v>10.09512782163849</v>
       </c>
       <c r="K12">
-        <v>18.18159044147562</v>
+        <v>13.76090118216321</v>
       </c>
       <c r="L12">
-        <v>9.429603336149601</v>
+        <v>11.43642415991235</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.68338640712288</v>
+        <v>20.90761896001167</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.20784077692527</v>
+        <v>15.28833179299126</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.548486618378755</v>
+        <v>7.573183848053711</v>
       </c>
       <c r="E13">
-        <v>7.444172170092596</v>
+        <v>12.58197293185603</v>
       </c>
       <c r="F13">
-        <v>29.36948848890217</v>
+        <v>38.59709601836948</v>
       </c>
       <c r="G13">
-        <v>39.09419440628376</v>
+        <v>45.10024784844637</v>
       </c>
       <c r="H13">
-        <v>11.96004712773383</v>
+        <v>18.14168005727159</v>
       </c>
       <c r="I13">
-        <v>17.68666700574344</v>
+        <v>28.49444309896799</v>
       </c>
       <c r="J13">
-        <v>6.052071577281239</v>
+        <v>10.09566563165184</v>
       </c>
       <c r="K13">
-        <v>18.13246208999933</v>
+        <v>13.74688562331965</v>
       </c>
       <c r="L13">
-        <v>9.411376099109606</v>
+        <v>11.433808005102</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.69714796786292</v>
+        <v>20.91114537081345</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.09037762721882</v>
+        <v>15.26165524357631</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.537268923563333</v>
+        <v>7.572872456749888</v>
       </c>
       <c r="E14">
-        <v>7.446326790826971</v>
+        <v>12.58444459369389</v>
       </c>
       <c r="F14">
-        <v>29.25592284275279</v>
+        <v>38.59522564010033</v>
       </c>
       <c r="G14">
-        <v>38.88763712699582</v>
+        <v>45.08239480434973</v>
       </c>
       <c r="H14">
-        <v>11.94093299582892</v>
+        <v>18.14649826312063</v>
       </c>
       <c r="I14">
-        <v>17.70394381821916</v>
+        <v>28.508884891019</v>
       </c>
       <c r="J14">
-        <v>6.056513126416932</v>
+        <v>10.0974287512275</v>
       </c>
       <c r="K14">
-        <v>17.97147556463959</v>
+        <v>13.70113798902936</v>
       </c>
       <c r="L14">
-        <v>9.35182448668067</v>
+        <v>11.42531812834013</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.74206813880536</v>
+        <v>20.92269073749245</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.01809575681495</v>
+        <v>15.24534024018536</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.530410620916938</v>
+        <v>7.572691298953693</v>
       </c>
       <c r="E15">
-        <v>7.447680701768487</v>
+        <v>12.58597165575824</v>
       </c>
       <c r="F15">
-        <v>29.18673740865632</v>
+        <v>38.59424218494591</v>
       </c>
       <c r="G15">
-        <v>38.76152535518435</v>
+        <v>45.07169118714278</v>
       </c>
       <c r="H15">
-        <v>11.92942188878602</v>
+        <v>18.14950942803238</v>
       </c>
       <c r="I15">
-        <v>17.71481738785896</v>
+        <v>28.51781565224132</v>
       </c>
       <c r="J15">
-        <v>6.059248357067085</v>
+        <v>10.09851578935506</v>
       </c>
       <c r="K15">
-        <v>17.87227498702765</v>
+        <v>13.67308673333055</v>
       </c>
       <c r="L15">
-        <v>9.315264687686389</v>
+        <v>11.4201502097676</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.76961504531355</v>
+        <v>20.92979718928618</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.59882185628262</v>
+        <v>15.15225286609749</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.491305844228066</v>
+        <v>7.571800369369459</v>
       </c>
       <c r="E16">
-        <v>7.455954161686483</v>
+        <v>12.59492364337295</v>
       </c>
       <c r="F16">
-        <v>28.79603709515635</v>
+        <v>38.5910939919801</v>
       </c>
       <c r="G16">
-        <v>38.04518222412512</v>
+        <v>45.0139156372873</v>
       </c>
       <c r="H16">
-        <v>11.86642716265727</v>
+        <v>18.16768261220705</v>
       </c>
       <c r="I16">
-        <v>17.78148563797046</v>
+        <v>28.57029289669935</v>
       </c>
       <c r="J16">
-        <v>6.075146326964942</v>
+        <v>10.10485378468648</v>
       </c>
       <c r="K16">
-        <v>17.29467452781221</v>
+        <v>13.51193054841113</v>
       </c>
       <c r="L16">
-        <v>9.104520682112801</v>
+        <v>11.39103623245704</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.92799442132763</v>
+        <v>20.97105234094988</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.33714543491863</v>
+        <v>15.09553387237149</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.467493035805354</v>
+        <v>7.571385606962313</v>
       </c>
       <c r="E17">
-        <v>7.461479984892719</v>
+        <v>12.600595046546</v>
       </c>
       <c r="F17">
-        <v>28.56150524135585</v>
+        <v>38.59138370587686</v>
       </c>
       <c r="G17">
-        <v>37.61146801729647</v>
+        <v>44.9816595725838</v>
       </c>
       <c r="H17">
-        <v>11.83038231998116</v>
+        <v>18.17964954671744</v>
       </c>
       <c r="I17">
-        <v>17.82616066818069</v>
+        <v>28.6036445143268</v>
       </c>
       <c r="J17">
-        <v>6.085097474742487</v>
+        <v>10.10883903286888</v>
       </c>
       <c r="K17">
-        <v>16.93213913652526</v>
+        <v>13.41275573501913</v>
       </c>
       <c r="L17">
-        <v>8.974173549806984</v>
+        <v>11.37362843174818</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>13.02564872758631</v>
+        <v>20.99683581013366</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.18501540826273</v>
+        <v>15.06306221228138</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.453861809809354</v>
+        <v>7.571195650914693</v>
       </c>
       <c r="E18">
-        <v>7.464820355165143</v>
+        <v>12.60392322012255</v>
       </c>
       <c r="F18">
-        <v>28.42850080053836</v>
+        <v>38.59236697969609</v>
       </c>
       <c r="G18">
-        <v>37.36414612751886</v>
+        <v>44.96428115752128</v>
       </c>
       <c r="H18">
-        <v>11.81058586262182</v>
+        <v>18.18683317430739</v>
       </c>
       <c r="I18">
-        <v>17.85320138298827</v>
+        <v>28.62325312335112</v>
       </c>
       <c r="J18">
-        <v>6.090893548425722</v>
+        <v>10.11116699150423</v>
       </c>
       <c r="K18">
-        <v>16.72058446512612</v>
+        <v>13.35561950813099</v>
       </c>
       <c r="L18">
-        <v>8.898827621439098</v>
+        <v>11.36378437938092</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.08201008822962</v>
+        <v>21.0118406512279</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.13323058958868</v>
+        <v>15.05209478828871</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.44925776198136</v>
+        <v>7.571139698907153</v>
       </c>
       <c r="E19">
-        <v>7.465978868342416</v>
+        <v>12.60506145148494</v>
       </c>
       <c r="F19">
-        <v>28.38379268700773</v>
+        <v>38.59284018806836</v>
       </c>
       <c r="G19">
-        <v>37.28077756639527</v>
+        <v>44.95859909912607</v>
       </c>
       <c r="H19">
-        <v>11.80404190421321</v>
+        <v>18.18931703411628</v>
       </c>
       <c r="I19">
-        <v>17.86258390246493</v>
+        <v>28.62996535498403</v>
       </c>
       <c r="J19">
-        <v>6.092868403217869</v>
+        <v>10.11196134472404</v>
       </c>
       <c r="K19">
-        <v>16.64843259435507</v>
+        <v>13.33626009662945</v>
       </c>
       <c r="L19">
-        <v>8.873254308523586</v>
+        <v>11.36048047951839</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.10112734499283</v>
+        <v>21.01695110459311</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.36516956616121</v>
+        <v>15.10155622585687</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.470021203669583</v>
+        <v>7.571424732593746</v>
       </c>
       <c r="E20">
-        <v>7.460874903484527</v>
+        <v>12.59998447408057</v>
       </c>
       <c r="F20">
-        <v>28.58627572100681</v>
+        <v>38.5912683541263</v>
       </c>
       <c r="G20">
-        <v>37.65741695508822</v>
+        <v>44.98497180254613</v>
       </c>
       <c r="H20">
-        <v>11.83412207309597</v>
+        <v>18.17834453536699</v>
       </c>
       <c r="I20">
-        <v>17.82126480017429</v>
+        <v>28.60005012290861</v>
       </c>
       <c r="J20">
-        <v>6.084030652130696</v>
+        <v>10.10841109801624</v>
       </c>
       <c r="K20">
-        <v>16.97104516216002</v>
+        <v>13.42332321142956</v>
       </c>
       <c r="L20">
-        <v>8.98808830020608</v>
+        <v>11.37546413406034</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>13.01523352631423</v>
+        <v>20.99407302618916</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.12494873591675</v>
+        <v>15.26948560302381</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.540561152873902</v>
+        <v>7.572961924768961</v>
       </c>
       <c r="E21">
-        <v>7.44568678997828</v>
+        <v>12.58371587774233</v>
       </c>
       <c r="F21">
-        <v>29.28920129484766</v>
+        <v>38.59574121576026</v>
       </c>
       <c r="G21">
-        <v>38.94822259030571</v>
+        <v>45.08759037176301</v>
       </c>
       <c r="H21">
-        <v>11.94650614513677</v>
+        <v>18.14507056074151</v>
       </c>
       <c r="I21">
-        <v>17.69880829736764</v>
+        <v>28.50462532484497</v>
       </c>
       <c r="J21">
-        <v>6.055205479161558</v>
+        <v>10.09690940591109</v>
       </c>
       <c r="K21">
-        <v>18.01888438641481</v>
+        <v>13.71458143801472</v>
       </c>
       <c r="L21">
-        <v>9.36933355260477</v>
+        <v>11.42780507597366</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.72886739557195</v>
+        <v>20.91929237889162</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.60668625634036</v>
+        <v>15.38038818286779</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.587239398779156</v>
+        <v>7.57439573466575</v>
       </c>
       <c r="E22">
-        <v>7.437279245690129</v>
+        <v>12.5736699378584</v>
       </c>
       <c r="F22">
-        <v>29.76546751907553</v>
+        <v>38.60592571272346</v>
       </c>
       <c r="G22">
-        <v>39.81029127214409</v>
+        <v>45.16504500932746</v>
       </c>
       <c r="H22">
-        <v>12.02871236511938</v>
+        <v>18.12600355834596</v>
       </c>
       <c r="I22">
-        <v>17.63168425993666</v>
+        <v>28.446052449202</v>
       </c>
       <c r="J22">
-        <v>6.037021239382461</v>
+        <v>10.08970929355542</v>
       </c>
       <c r="K22">
-        <v>18.67716603657164</v>
+        <v>13.90366995399737</v>
       </c>
       <c r="L22">
-        <v>9.614840142538114</v>
+        <v>11.46346769069537</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.54317509627768</v>
+        <v>20.87196774309925</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.35094558388119</v>
+        <v>15.32110172762788</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.562273661044354</v>
+        <v>7.573591393663892</v>
       </c>
       <c r="E23">
-        <v>7.441623648091474</v>
+        <v>12.57897809181623</v>
       </c>
       <c r="F23">
-        <v>29.50973113580037</v>
+        <v>38.59982633946109</v>
       </c>
       <c r="G23">
-        <v>39.34852576527062</v>
+        <v>45.12275940686307</v>
       </c>
       <c r="H23">
-        <v>11.98401554162234</v>
+        <v>18.13593467750596</v>
       </c>
       <c r="I23">
-        <v>17.66628160451692</v>
+        <v>28.47696673651935</v>
       </c>
       <c r="J23">
-        <v>6.046666084413474</v>
+        <v>10.09352320088569</v>
       </c>
       <c r="K23">
-        <v>18.32823340344806</v>
+        <v>13.80288606541721</v>
       </c>
       <c r="L23">
-        <v>9.484157499798684</v>
+        <v>11.44430302303886</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.64216145607303</v>
+        <v>20.89708447597629</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.35250511176663</v>
+        <v>15.09883309136652</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.468878034893653</v>
+        <v>7.571406892817762</v>
       </c>
       <c r="E24">
-        <v>7.461147952328137</v>
+        <v>12.60026030329603</v>
       </c>
       <c r="F24">
-        <v>28.57507128397447</v>
+        <v>38.5913179605014</v>
       </c>
       <c r="G24">
-        <v>37.63663712210495</v>
+        <v>44.98347071050087</v>
       </c>
       <c r="H24">
-        <v>11.83242845052239</v>
+        <v>18.17893358506425</v>
       </c>
       <c r="I24">
-        <v>17.82347400719717</v>
+        <v>28.60167379438667</v>
       </c>
       <c r="J24">
-        <v>6.084512729042938</v>
+        <v>10.10860445276816</v>
       </c>
       <c r="K24">
-        <v>16.95346549689959</v>
+        <v>13.4185460220377</v>
       </c>
       <c r="L24">
-        <v>8.981798707263721</v>
+        <v>11.37463370193589</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>13.0199415551522</v>
+        <v>20.9953215150764</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.21397988026415</v>
+        <v>14.86499102632912</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.370641238666559</v>
+        <v>7.570910795486192</v>
       </c>
       <c r="E25">
-        <v>7.488369266183359</v>
+        <v>12.6257464701463</v>
       </c>
       <c r="F25">
-        <v>27.63920330772731</v>
+        <v>38.61335987528211</v>
       </c>
       <c r="G25">
-        <v>35.87233853927386</v>
+        <v>44.87814463745906</v>
       </c>
       <c r="H25">
-        <v>11.70442906973837</v>
+        <v>18.23680340219421</v>
       </c>
       <c r="I25">
-        <v>18.04397379484306</v>
+        <v>28.75246252133025</v>
       </c>
       <c r="J25">
-        <v>6.128102635571254</v>
+        <v>10.12623969962929</v>
       </c>
       <c r="K25">
-        <v>15.35432194247366</v>
+        <v>13.00067855967588</v>
       </c>
       <c r="L25">
-        <v>8.425932546626894</v>
+        <v>11.30594760753709</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.4349551991939</v>
+        <v>21.10797710480795</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_171/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_171/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.69890608103378</v>
+        <v>12.32591778994039</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.572163081662111</v>
+        <v>4.30051500628626</v>
       </c>
       <c r="E2">
-        <v>12.64670359564358</v>
+        <v>7.513363231922379</v>
       </c>
       <c r="F2">
-        <v>38.65643293357294</v>
+        <v>27.01189462534278</v>
       </c>
       <c r="G2">
-        <v>44.83942540982797</v>
+        <v>34.64750336388062</v>
       </c>
       <c r="H2">
-        <v>18.28927540083934</v>
+        <v>11.63835667751714</v>
       </c>
       <c r="I2">
-        <v>28.87748646452587</v>
+        <v>18.24560001591872</v>
       </c>
       <c r="J2">
-        <v>10.14041089272122</v>
+        <v>6.162544732742994</v>
       </c>
       <c r="K2">
-        <v>12.69257957617437</v>
+        <v>14.07440360044598</v>
       </c>
       <c r="L2">
-        <v>11.26114052038591</v>
+        <v>8.006949632855255</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.19674134173647</v>
+        <v>13.74831026076698</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.59064597173884</v>
+        <v>11.69539079741631</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.574029567663559</v>
+        <v>4.254407482477136</v>
       </c>
       <c r="E3">
-        <v>12.66228181817337</v>
+        <v>7.533239249552394</v>
       </c>
       <c r="F3">
-        <v>38.70234376265739</v>
+        <v>26.62489776231746</v>
       </c>
       <c r="G3">
-        <v>44.83744534736566</v>
+        <v>33.86553579750289</v>
       </c>
       <c r="H3">
-        <v>18.33097746650159</v>
+        <v>11.60993829718541</v>
       </c>
       <c r="I3">
-        <v>28.97095124947406</v>
+        <v>18.40467374917278</v>
       </c>
       <c r="J3">
-        <v>10.1507600937019</v>
+        <v>6.187339783650043</v>
       </c>
       <c r="K3">
-        <v>12.4847955616569</v>
+        <v>13.14193753005072</v>
       </c>
       <c r="L3">
-        <v>11.23446620043975</v>
+        <v>7.718470246006275</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.26055695412704</v>
+        <v>13.96613402098431</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.52645458149947</v>
+        <v>11.29517021308605</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.575680571815174</v>
+        <v>4.226814180296516</v>
       </c>
       <c r="E4">
-        <v>12.67252805241723</v>
+        <v>7.546847636443353</v>
       </c>
       <c r="F4">
-        <v>38.73876635179204</v>
+        <v>26.40587677144097</v>
       </c>
       <c r="G4">
-        <v>44.84819120245588</v>
+        <v>33.40968408384041</v>
       </c>
       <c r="H4">
-        <v>18.35960780550905</v>
+        <v>11.60014853042755</v>
       </c>
       <c r="I4">
-        <v>29.03264832855853</v>
+        <v>18.51277883495507</v>
       </c>
       <c r="J4">
-        <v>10.15748384155383</v>
+        <v>6.20327846875485</v>
       </c>
       <c r="K4">
-        <v>12.35816043131097</v>
+        <v>12.53698116772125</v>
       </c>
       <c r="L4">
-        <v>11.21993807970401</v>
+        <v>7.539719656205997</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.30155498930459</v>
+        <v>14.10275759868046</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.50089345629246</v>
+        <v>11.12898649183678</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.576480812249745</v>
+        <v>4.215753022036864</v>
       </c>
       <c r="E5">
-        <v>12.67687514958782</v>
+        <v>7.552740232729081</v>
       </c>
       <c r="F5">
-        <v>38.75567677409581</v>
+        <v>26.32125895242804</v>
       </c>
       <c r="G5">
-        <v>44.85557615107563</v>
+        <v>33.23009708870564</v>
       </c>
       <c r="H5">
-        <v>18.37203495458797</v>
+        <v>11.59802379691303</v>
       </c>
       <c r="I5">
-        <v>29.05887404913103</v>
+        <v>18.55936771470424</v>
       </c>
       <c r="J5">
-        <v>10.16031692367345</v>
+        <v>6.209952953127439</v>
       </c>
       <c r="K5">
-        <v>12.30686123486642</v>
+        <v>12.28226214523705</v>
       </c>
       <c r="L5">
-        <v>11.21448717109725</v>
+        <v>7.466572519859302</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.31871977396381</v>
+        <v>14.15918237255087</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.49668580996793</v>
+        <v>11.10121159903537</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.576621402159354</v>
+        <v>4.213927488678095</v>
       </c>
       <c r="E6">
-        <v>12.67760736206126</v>
+        <v>7.5537394866545</v>
       </c>
       <c r="F6">
-        <v>38.7586095516034</v>
+        <v>26.30748671203686</v>
       </c>
       <c r="G6">
-        <v>44.85698387117777</v>
+        <v>33.20065151910902</v>
       </c>
       <c r="H6">
-        <v>18.37414435889886</v>
+        <v>11.59778180486303</v>
       </c>
       <c r="I6">
-        <v>29.06329426212328</v>
+        <v>18.56725439845605</v>
       </c>
       <c r="J6">
-        <v>10.1607929848339</v>
+        <v>6.211072070815627</v>
       </c>
       <c r="K6">
-        <v>12.29836349182864</v>
+        <v>12.23947018453792</v>
       </c>
       <c r="L6">
-        <v>11.21361051931387</v>
+        <v>7.454411283545938</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.32159766044909</v>
+        <v>14.16859766219677</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.52610740562174</v>
+        <v>11.29294122876955</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.575690847507819</v>
+        <v>4.226664259233806</v>
       </c>
       <c r="E7">
-        <v>12.67258598325073</v>
+        <v>7.546925708492132</v>
       </c>
       <c r="F7">
-        <v>38.7389860424016</v>
+        <v>26.40471688287282</v>
       </c>
       <c r="G7">
-        <v>44.84827863166728</v>
+        <v>33.40723702390991</v>
       </c>
       <c r="H7">
-        <v>18.35977232586252</v>
+        <v>11.60011240692397</v>
       </c>
       <c r="I7">
-        <v>29.03299763004532</v>
+        <v>18.51339699689293</v>
       </c>
       <c r="J7">
-        <v>10.15752167220975</v>
+        <v>6.203367757368054</v>
       </c>
       <c r="K7">
-        <v>12.35746726494149</v>
+        <v>12.53357916933843</v>
       </c>
       <c r="L7">
-        <v>11.2198626609053</v>
+        <v>7.538734259179952</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.30178462438078</v>
+        <v>14.10351549490755</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.66111923705138</v>
+        <v>12.11133335026854</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.572702118167387</v>
+        <v>4.284470138001029</v>
       </c>
       <c r="E8">
-        <v>12.65193383255105</v>
+        <v>7.519921182667718</v>
       </c>
       <c r="F8">
-        <v>38.67055296301885</v>
+        <v>26.8745773146401</v>
       </c>
       <c r="G8">
-        <v>44.83625948317012</v>
+        <v>34.37288976019061</v>
       </c>
       <c r="H8">
-        <v>18.30302604951833</v>
+        <v>11.62693165011055</v>
       </c>
       <c r="I8">
-        <v>28.90881874987712</v>
+        <v>18.29822845906007</v>
       </c>
       <c r="J8">
-        <v>10.14390279284826</v>
+        <v>6.170945574383467</v>
       </c>
       <c r="K8">
-        <v>12.62078021055829</v>
+        <v>13.75959049654486</v>
       </c>
       <c r="L8">
-        <v>11.25156188343869</v>
+        <v>7.907877828861788</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.21836908510122</v>
+        <v>13.82283420365379</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.94288199565255</v>
+        <v>13.6054800731718</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.570827814412924</v>
+        <v>4.403394547227978</v>
       </c>
       <c r="E9">
-        <v>12.61682201713771</v>
+        <v>7.478408947841229</v>
       </c>
       <c r="F9">
-        <v>38.6017633963126</v>
+        <v>27.94482189589187</v>
       </c>
       <c r="G9">
-        <v>44.90760140315315</v>
+        <v>36.45536431963635</v>
       </c>
       <c r="H9">
-        <v>18.21577646473907</v>
+        <v>11.7430097210249</v>
       </c>
       <c r="I9">
-        <v>28.69949479323208</v>
+        <v>17.96330720055045</v>
       </c>
       <c r="J9">
-        <v>10.1201156168994</v>
+        <v>6.113052928353507</v>
       </c>
       <c r="K9">
-        <v>13.14167016186625</v>
+        <v>15.90875495483476</v>
       </c>
       <c r="L9">
-        <v>11.32820228472012</v>
+        <v>8.614861115462217</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>21.06912947142988</v>
+        <v>13.29403259477733</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.15874476450094</v>
+        <v>14.62845980531672</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.571854270380575</v>
+        <v>4.494031868624532</v>
       </c>
       <c r="E10">
-        <v>12.59428544982521</v>
+        <v>7.455345831174988</v>
       </c>
       <c r="F10">
-        <v>38.59117156354175</v>
+        <v>28.82305523624358</v>
       </c>
       <c r="G10">
-        <v>45.01775520206738</v>
+        <v>38.09495965534663</v>
       </c>
       <c r="H10">
-        <v>18.16635784018441</v>
+        <v>11.87066835792363</v>
       </c>
       <c r="I10">
-        <v>28.56654492897672</v>
+        <v>17.77657321101344</v>
       </c>
       <c r="J10">
-        <v>10.10440387935867</v>
+        <v>6.074020676791899</v>
       </c>
       <c r="K10">
-        <v>13.52323290688246</v>
+        <v>17.33563279869614</v>
       </c>
       <c r="L10">
-        <v>11.39304525918605</v>
+        <v>9.119342305066999</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.96813393469831</v>
+        <v>12.91687672017204</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.2585338055182</v>
+        <v>15.07657480200587</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.572837245370111</v>
+        <v>4.535956643326386</v>
       </c>
       <c r="E11">
-        <v>12.58473583760695</v>
+        <v>7.446583682134388</v>
       </c>
       <c r="F11">
-        <v>38.59502795105966</v>
+        <v>29.24267012234091</v>
       </c>
       <c r="G11">
-        <v>45.08033418377342</v>
+        <v>38.86349629866614</v>
       </c>
       <c r="H11">
-        <v>18.14707053885883</v>
+        <v>11.93872008235515</v>
       </c>
       <c r="I11">
-        <v>28.51058769950385</v>
+        <v>17.70600600354118</v>
       </c>
       <c r="J11">
-        <v>10.09763620632826</v>
+        <v>6.057035318055524</v>
       </c>
       <c r="K11">
-        <v>13.69577544235407</v>
+        <v>17.95254051746419</v>
       </c>
       <c r="L11">
-        <v>11.42432793955922</v>
+        <v>9.344838013966116</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.92404765668586</v>
+        <v>12.74733402807425</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.29652155568308</v>
+        <v>15.24372603452148</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.573283149491148</v>
+        <v>4.551931475206188</v>
       </c>
       <c r="E12">
-        <v>12.5812202605205</v>
+        <v>7.443525200366441</v>
       </c>
       <c r="F12">
-        <v>38.59773425198453</v>
+        <v>29.40446195847139</v>
       </c>
       <c r="G12">
-        <v>45.10581464712761</v>
+        <v>39.15769515768976</v>
       </c>
       <c r="H12">
-        <v>18.14022652720936</v>
+        <v>11.96598717067635</v>
       </c>
       <c r="I12">
-        <v>28.49004857545084</v>
+        <v>17.68148650566576</v>
       </c>
       <c r="J12">
-        <v>10.09512782163849</v>
+        <v>6.050715506398049</v>
       </c>
       <c r="K12">
-        <v>13.76090118216321</v>
+        <v>18.18159044147562</v>
       </c>
       <c r="L12">
-        <v>11.43642415991235</v>
+        <v>9.429603336149613</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.90761896001167</v>
+        <v>12.68338640712288</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.28833179299126</v>
+        <v>15.2078407769253</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.573183848053711</v>
+        <v>4.54848661837871</v>
       </c>
       <c r="E13">
-        <v>12.58197293185603</v>
+        <v>7.444172170092599</v>
       </c>
       <c r="F13">
-        <v>38.59709601836948</v>
+        <v>29.36948848890231</v>
       </c>
       <c r="G13">
-        <v>45.10024784844637</v>
+        <v>39.09419440628392</v>
       </c>
       <c r="H13">
-        <v>18.14168005727159</v>
+        <v>11.96004712773391</v>
       </c>
       <c r="I13">
-        <v>28.49444309896799</v>
+        <v>17.6866670057435</v>
       </c>
       <c r="J13">
-        <v>10.09566563165184</v>
+        <v>6.052071577281207</v>
       </c>
       <c r="K13">
-        <v>13.74688562331965</v>
+        <v>18.13246208999927</v>
       </c>
       <c r="L13">
-        <v>11.433808005102</v>
+        <v>9.411376099109619</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.91114537081345</v>
+        <v>12.69714796786295</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.26165524357631</v>
+        <v>15.09037762721885</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.572872456749888</v>
+        <v>4.537268923563339</v>
       </c>
       <c r="E14">
-        <v>12.58444459369389</v>
+        <v>7.446326790827109</v>
       </c>
       <c r="F14">
-        <v>38.59522564010033</v>
+        <v>29.25592284275281</v>
       </c>
       <c r="G14">
-        <v>45.08239480434973</v>
+        <v>38.88763712699581</v>
       </c>
       <c r="H14">
-        <v>18.14649826312063</v>
+        <v>11.94093299582896</v>
       </c>
       <c r="I14">
-        <v>28.508884891019</v>
+        <v>17.70394381821923</v>
       </c>
       <c r="J14">
-        <v>10.0974287512275</v>
+        <v>6.056513126417031</v>
       </c>
       <c r="K14">
-        <v>13.70113798902936</v>
+        <v>17.97147556463955</v>
       </c>
       <c r="L14">
-        <v>11.42531812834013</v>
+        <v>9.351824486680686</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.92269073749245</v>
+        <v>12.74206813880536</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.24534024018536</v>
+        <v>15.01809575681498</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.572691298953693</v>
+        <v>4.530410620916653</v>
       </c>
       <c r="E15">
-        <v>12.58597165575824</v>
+        <v>7.447680701768553</v>
       </c>
       <c r="F15">
-        <v>38.59424218494591</v>
+        <v>29.18673740865624</v>
       </c>
       <c r="G15">
-        <v>45.07169118714278</v>
+        <v>38.76152535518435</v>
       </c>
       <c r="H15">
-        <v>18.14950942803238</v>
+        <v>11.92942188878607</v>
       </c>
       <c r="I15">
-        <v>28.51781565224132</v>
+        <v>17.71481738785905</v>
       </c>
       <c r="J15">
-        <v>10.09851578935506</v>
+        <v>6.059248357067288</v>
       </c>
       <c r="K15">
-        <v>13.67308673333055</v>
+        <v>17.87227498702761</v>
       </c>
       <c r="L15">
-        <v>11.4201502097676</v>
+        <v>9.315264687686389</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.92979718928618</v>
+        <v>12.76961504531355</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.15225286609749</v>
+        <v>14.59882185628262</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.571800369369459</v>
+        <v>4.491305844227941</v>
       </c>
       <c r="E16">
-        <v>12.59492364337295</v>
+        <v>7.455954161686416</v>
       </c>
       <c r="F16">
-        <v>38.5910939919801</v>
+        <v>28.79603709515623</v>
       </c>
       <c r="G16">
-        <v>45.0139156372873</v>
+        <v>38.04518222412502</v>
       </c>
       <c r="H16">
-        <v>18.16768261220705</v>
+        <v>11.86642716265723</v>
       </c>
       <c r="I16">
-        <v>28.57029289669935</v>
+        <v>17.78148563797038</v>
       </c>
       <c r="J16">
-        <v>10.10485378468648</v>
+        <v>6.075146326964877</v>
       </c>
       <c r="K16">
-        <v>13.51193054841113</v>
+        <v>17.29467452781222</v>
       </c>
       <c r="L16">
-        <v>11.39103623245704</v>
+        <v>9.104520682112756</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.97105234094988</v>
+        <v>12.92799442132756</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.09553387237149</v>
+        <v>14.33714543491865</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.571385606962313</v>
+        <v>4.467493035805405</v>
       </c>
       <c r="E17">
-        <v>12.600595046546</v>
+        <v>7.461479984892849</v>
       </c>
       <c r="F17">
-        <v>38.59138370587686</v>
+        <v>28.56150524135593</v>
       </c>
       <c r="G17">
-        <v>44.9816595725838</v>
+        <v>37.61146801729654</v>
       </c>
       <c r="H17">
-        <v>18.17964954671744</v>
+        <v>11.8303823199812</v>
       </c>
       <c r="I17">
-        <v>28.6036445143268</v>
+        <v>17.82616066818084</v>
       </c>
       <c r="J17">
-        <v>10.10883903286888</v>
+        <v>6.085097474742588</v>
       </c>
       <c r="K17">
-        <v>13.41275573501913</v>
+        <v>16.93213913652527</v>
       </c>
       <c r="L17">
-        <v>11.37362843174818</v>
+        <v>8.974173549806999</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.99683581013366</v>
+        <v>13.02564872758638</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.06306221228138</v>
+        <v>14.18501540826275</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.571195650914693</v>
+        <v>4.453861809809402</v>
       </c>
       <c r="E18">
-        <v>12.60392322012255</v>
+        <v>7.464820355165205</v>
       </c>
       <c r="F18">
-        <v>38.59236697969609</v>
+        <v>28.42850080053843</v>
       </c>
       <c r="G18">
-        <v>44.96428115752128</v>
+        <v>37.36414612751883</v>
       </c>
       <c r="H18">
-        <v>18.18683317430739</v>
+        <v>11.81058586262184</v>
       </c>
       <c r="I18">
-        <v>28.62325312335112</v>
+        <v>17.85320138298826</v>
       </c>
       <c r="J18">
-        <v>10.11116699150423</v>
+        <v>6.090893548425722</v>
       </c>
       <c r="K18">
-        <v>13.35561950813099</v>
+        <v>16.72058446512609</v>
       </c>
       <c r="L18">
-        <v>11.36378437938092</v>
+        <v>8.89882762143916</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>21.0118406512279</v>
+        <v>13.08201008822962</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.05209478828871</v>
+        <v>14.13323058958871</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.571139698907153</v>
+        <v>4.449257761981243</v>
       </c>
       <c r="E19">
-        <v>12.60506145148494</v>
+        <v>7.465978868342414</v>
       </c>
       <c r="F19">
-        <v>38.59284018806836</v>
+        <v>28.38379268700769</v>
       </c>
       <c r="G19">
-        <v>44.95859909912607</v>
+        <v>37.2807775663952</v>
       </c>
       <c r="H19">
-        <v>18.18931703411628</v>
+        <v>11.80404190421331</v>
       </c>
       <c r="I19">
-        <v>28.62996535498403</v>
+        <v>17.86258390246496</v>
       </c>
       <c r="J19">
-        <v>10.11196134472404</v>
+        <v>6.092868403217904</v>
       </c>
       <c r="K19">
-        <v>13.33626009662945</v>
+        <v>16.64843259435506</v>
       </c>
       <c r="L19">
-        <v>11.36048047951839</v>
+        <v>8.873254308523546</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>21.01695110459311</v>
+        <v>13.10112734499283</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.10155622585687</v>
+        <v>14.36516956616118</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.571424732593746</v>
+        <v>4.47002120366948</v>
       </c>
       <c r="E20">
-        <v>12.59998447408057</v>
+        <v>7.460874903484662</v>
       </c>
       <c r="F20">
-        <v>38.5912683541263</v>
+        <v>28.58627572100685</v>
       </c>
       <c r="G20">
-        <v>44.98497180254613</v>
+        <v>37.65741695508831</v>
       </c>
       <c r="H20">
-        <v>18.17834453536699</v>
+        <v>11.83412207309601</v>
       </c>
       <c r="I20">
-        <v>28.60005012290861</v>
+        <v>17.82126480017433</v>
       </c>
       <c r="J20">
-        <v>10.10841109801624</v>
+        <v>6.084030652130829</v>
       </c>
       <c r="K20">
-        <v>13.42332321142956</v>
+        <v>16.97104516216</v>
       </c>
       <c r="L20">
-        <v>11.37546413406034</v>
+        <v>8.988088300206112</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.99407302618916</v>
+        <v>13.01523352631426</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.26948560302381</v>
+        <v>15.12494873591675</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.572961924768961</v>
+        <v>4.540561152873803</v>
       </c>
       <c r="E21">
-        <v>12.58371587774233</v>
+        <v>7.445686789978215</v>
       </c>
       <c r="F21">
-        <v>38.59574121576026</v>
+        <v>29.28920129484758</v>
       </c>
       <c r="G21">
-        <v>45.08759037176301</v>
+        <v>38.94822259030566</v>
       </c>
       <c r="H21">
-        <v>18.14507056074151</v>
+        <v>11.94650614513678</v>
       </c>
       <c r="I21">
-        <v>28.50462532484497</v>
+        <v>17.69880829736757</v>
       </c>
       <c r="J21">
-        <v>10.09690940591109</v>
+        <v>6.055205479161557</v>
       </c>
       <c r="K21">
-        <v>13.71458143801472</v>
+        <v>18.01888438641484</v>
       </c>
       <c r="L21">
-        <v>11.42780507597366</v>
+        <v>9.369333552604751</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.91929237889162</v>
+        <v>12.72886739557192</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.38038818286779</v>
+        <v>15.60668625634037</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.57439573466575</v>
+        <v>4.587239398779015</v>
       </c>
       <c r="E22">
-        <v>12.5736699378584</v>
+        <v>7.43727924569013</v>
       </c>
       <c r="F22">
-        <v>38.60592571272346</v>
+        <v>29.76546751907537</v>
       </c>
       <c r="G22">
-        <v>45.16504500932746</v>
+        <v>39.81029127214408</v>
       </c>
       <c r="H22">
-        <v>18.12600355834596</v>
+        <v>12.02871236511926</v>
       </c>
       <c r="I22">
-        <v>28.446052449202</v>
+        <v>17.63168425993657</v>
       </c>
       <c r="J22">
-        <v>10.08970929355542</v>
+        <v>6.037021239382559</v>
       </c>
       <c r="K22">
-        <v>13.90366995399737</v>
+        <v>18.67716603657165</v>
       </c>
       <c r="L22">
-        <v>11.46346769069537</v>
+        <v>9.614840142538117</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.87196774309925</v>
+        <v>12.54317509627764</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.32110172762788</v>
+        <v>15.3509455838812</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.573591393663892</v>
+        <v>4.562273661044409</v>
       </c>
       <c r="E23">
-        <v>12.57897809181623</v>
+        <v>7.441623648091605</v>
       </c>
       <c r="F23">
-        <v>38.59982633946109</v>
+        <v>29.50973113580039</v>
       </c>
       <c r="G23">
-        <v>45.12275940686307</v>
+        <v>39.3485257652706</v>
       </c>
       <c r="H23">
-        <v>18.13593467750596</v>
+        <v>11.98401554162234</v>
       </c>
       <c r="I23">
-        <v>28.47696673651935</v>
+        <v>17.66628160451692</v>
       </c>
       <c r="J23">
-        <v>10.09352320088569</v>
+        <v>6.046666084413508</v>
       </c>
       <c r="K23">
-        <v>13.80288606541721</v>
+        <v>18.32823340344806</v>
       </c>
       <c r="L23">
-        <v>11.44430302303886</v>
+        <v>9.484157499798705</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.89708447597629</v>
+        <v>12.64216145607303</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.09883309136652</v>
+        <v>14.35250511176662</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.571406892817762</v>
+        <v>4.468878034893649</v>
       </c>
       <c r="E24">
-        <v>12.60026030329603</v>
+        <v>7.461147952328007</v>
       </c>
       <c r="F24">
-        <v>38.5913179605014</v>
+        <v>28.57507128397441</v>
       </c>
       <c r="G24">
-        <v>44.98347071050087</v>
+        <v>37.63663712210484</v>
       </c>
       <c r="H24">
-        <v>18.17893358506425</v>
+        <v>11.83242845052235</v>
       </c>
       <c r="I24">
-        <v>28.60167379438667</v>
+        <v>17.82347400719706</v>
       </c>
       <c r="J24">
-        <v>10.10860445276816</v>
+        <v>6.084512729042871</v>
       </c>
       <c r="K24">
-        <v>13.4185460220377</v>
+        <v>16.95346549689961</v>
       </c>
       <c r="L24">
-        <v>11.37463370193589</v>
+        <v>8.981798707263726</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.9953215150764</v>
+        <v>13.01994155515216</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.86499102632912</v>
+        <v>13.21397988026419</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.570910795486192</v>
+        <v>4.370641238666559</v>
       </c>
       <c r="E25">
-        <v>12.6257464701463</v>
+        <v>7.488369266183356</v>
       </c>
       <c r="F25">
-        <v>38.61335987528211</v>
+        <v>27.63920330772732</v>
       </c>
       <c r="G25">
-        <v>44.87814463745906</v>
+        <v>35.87233853927387</v>
       </c>
       <c r="H25">
-        <v>18.23680340219421</v>
+        <v>11.70442906973837</v>
       </c>
       <c r="I25">
-        <v>28.75246252133025</v>
+        <v>18.04397379484303</v>
       </c>
       <c r="J25">
-        <v>10.12623969962929</v>
+        <v>6.128102635571254</v>
       </c>
       <c r="K25">
-        <v>13.00067855967588</v>
+        <v>15.35432194247364</v>
       </c>
       <c r="L25">
-        <v>11.30594760753709</v>
+        <v>8.425932546626919</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21.10797710480795</v>
+        <v>13.43495519919386</v>
       </c>
       <c r="O25">
         <v>0</v>
